--- a/Results/Simpson_W16_Math.xlsx
+++ b/Results/Simpson_W16_Math.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eloisechakour/Documents/GitHub/B21Research/Results/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -157,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +208,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -241,12 +259,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -273,14 +291,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -307,6 +326,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,14 +502,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -505,7 +527,7 @@
         <v>0.4759606330284013</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -513,95 +535,95 @@
         <v>0.4759606330284013</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.4775530018687014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.47755300186870142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.4119395912181743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.41193959121817431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3985392392978639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.39853923929786389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3985392392978639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.39853923929786389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3522846166977364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.35228461669773642</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.2350504023633603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.23505040236336031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>-0.7935374949253622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.79353749492536219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11">
-        <v>-0.8435533059716017</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.84355330597160172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>-0.6356091518036183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.63560915180361832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>-0.8840014991831004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.88400149918310045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>-0.8508265733301719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.85082657333017186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -609,7 +631,7 @@
         <v>-1.05187123148229</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -617,7 +639,7 @@
         <v>-1.183005565920217</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -625,7 +647,7 @@
         <v>-1.183005565920217</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -633,7 +655,7 @@
         <v>-1.295781869808069</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -641,7 +663,7 @@
         <v>-1.32131340985354</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -649,31 +671,31 @@
         <v>-1.396677507748566</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21">
-        <v>-1.449401103611904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-1.4494011036119041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>17</v>
       </c>
       <c r="B22">
-        <v>-2.618289402303055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-2.6182894023030552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23">
-        <v>-2.676680764165807</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-2.6766807641658068</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -681,7 +703,7 @@
         <v>-2.750196185348408</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -689,151 +711,151 @@
         <v>-2.889171578410866</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
       <c r="B26">
-        <v>-2.779204574501159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-2.7792045745011591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
       <c r="B27">
-        <v>-2.880358198877116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>-2.8803581988771159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28">
-        <v>-2.967749548884019</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-2.9677495488840191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>24</v>
       </c>
       <c r="B29">
-        <v>-3.338546461490186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-3.3385464614901861</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
       <c r="B30">
-        <v>-3.59278863774259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-3.5927886377425899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
       <c r="B31">
-        <v>-4.207441928186769</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-4.2074419281867694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
       <c r="B32">
-        <v>-4.947919762818075</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-4.9479197628180751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33">
-        <v>-5.164860123966103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-5.1648601239661032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
       <c r="B34">
-        <v>-5.891507634012546</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-5.8915076340125463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
       <c r="B35">
-        <v>-6.282964607926115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-6.2829646079261154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
       <c r="B36">
-        <v>-6.300400181447299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-6.3004001814472987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>32</v>
       </c>
       <c r="B37">
-        <v>-6.056149208775406</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>-6.0561492087754063</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
       <c r="B38">
-        <v>-7.622917970277257</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-7.6229179702772569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>34</v>
       </c>
       <c r="B39">
-        <v>-7.746191642922884</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-7.7461916429228843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40">
-        <v>-8.163205956950197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-8.1632059569501969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41">
-        <v>-8.408467085793855</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-8.4084670857938555</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>37</v>
       </c>
       <c r="B42">
-        <v>-8.349718162191129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>-8.3497181621911292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43">
-        <v>-8.61561991120807</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-8.6156199112080696</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -841,52 +863,52 @@
         <v>-8.809283640698423</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
       <c r="B45">
-        <v>-9.811179229937418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>-9.8111792299374176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>41</v>
       </c>
       <c r="B46">
-        <v>-9.275058958134561</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-9.2750589581345615</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
       <c r="B47">
-        <v>-9.057997736614304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-9.0579977366143041</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>43</v>
       </c>
       <c r="B48">
-        <v>-9.47485878771665</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-9.4748587877166504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
       <c r="B49">
-        <v>-9.562339901407974</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-9.5623399014079737</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>45</v>
       </c>
       <c r="B50">
-        <v>-10.63902006722046</v>
+        <v>-10.639020067220461</v>
       </c>
     </row>
   </sheetData>
